--- a/DataTables/Datas/#Language.xlsx
+++ b/DataTables/Datas/#Language.xlsx
@@ -60,7 +60,7 @@
     <t>中文</t>
   </si>
   <si>
-    <t>奖励2</t>
+    <t>奖励1000</t>
   </si>
   <si>
     <t>奖励5</t>
@@ -997,7 +997,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
